--- a/biology/Histoire de la zoologie et de la botanique/Eiler_Lehn_Schiøler/Eiler_Lehn_Schiøler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eiler_Lehn_Schiøler/Eiler_Lehn_Schiøler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eiler_Lehn_Schi%C3%B8ler</t>
+          <t>Eiler_Lehn_Schiøler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eiler Lehn Schiøler est un banquier et ornithologue danois, né le 30 octobre 1874 à Frederiksberg et mort le 13 août 1929 à Frederiksberg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eiler_Lehn_Schi%C3%B8ler</t>
+          <t>Eiler_Lehn_Schiøler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vient compléter ses études commerce et bancaire aux États-Unis d'Amérique. À son retour, à 32 ans, il entre dans la banque familiale. Il amasse une importante fortune mais la perd presque totalement durant la grande crise des années 1920.
 Il est très tôt intéressé par l’histoire naturelle et en particulier par les oiseaux. Il constitue une riche collection de 22 000 peaux et de 11 000 squelettes
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eiler_Lehn_Schi%C3%B8ler</t>
+          <t>Eiler_Lehn_Schiøler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodore Sherman Palmer (1930). Obituaries [Eiler Lehn Schiøler], The Auk, 47 (3) : 305-306.  (ISSN 0004-8038)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie   Portail du Danemark                   </t>
